--- a/static/116search_results09272017.xlsx
+++ b/static/116search_results09272017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>Item Number</t>
   </si>
@@ -28,6 +28,123 @@
     <t>Search Results</t>
   </si>
   <si>
+    <t>37219</t>
+  </si>
+  <si>
+    <t>MICHAEL HEIZER: ALTARS.</t>
+  </si>
+  <si>
+    <t>9780847847679</t>
+  </si>
+  <si>
+    <t>37243</t>
+  </si>
+  <si>
+    <t>WIM DELVOYE.</t>
+  </si>
+  <si>
+    <t>9789082364712</t>
+  </si>
+  <si>
+    <t>37643</t>
+  </si>
+  <si>
+    <t>FRA BARTOLOMMEO: THE DIVINE RENAISSANCE.</t>
+  </si>
+  <si>
+    <t>9789096182940</t>
+  </si>
+  <si>
+    <t>37875</t>
+  </si>
+  <si>
+    <t>MASKROS/DANDELION: CECILIA EDEFALK.</t>
+  </si>
+  <si>
+    <t>9789186265304</t>
+  </si>
+  <si>
+    <t>37877</t>
+  </si>
+  <si>
+    <t>PAINTING BEAUTY: CAESAR VAN EVERDINGEN, 1616/1617-1678.</t>
+  </si>
+  <si>
+    <t>9789462621084</t>
+  </si>
+  <si>
+    <t>37900</t>
+  </si>
+  <si>
+    <t>JOE BRADLEY.</t>
+  </si>
+  <si>
+    <t>9781887457224</t>
+  </si>
+  <si>
+    <t>37921</t>
+  </si>
+  <si>
+    <t>JOANA HADJITHOMAS AND KHALIL JOREIGE: TWO SUNS IN A SUNSET/SE SOUVENIR DE LA LUMIERE.</t>
+  </si>
+  <si>
+    <t>9783863359867</t>
+  </si>
+  <si>
+    <t>37930</t>
+  </si>
+  <si>
+    <t>KIEFER RODIN.</t>
+  </si>
+  <si>
+    <t>9782072730023</t>
+  </si>
+  <si>
+    <t>37935</t>
+  </si>
+  <si>
+    <t>LIVING, BUILDING, THINKING: ART &amp; EXPRESSIONISM/VIVRE, BATIR, PENSER: L'ART &amp; L'EXPRESSIONNISME.</t>
+  </si>
+  <si>
+    <t>9781926632162</t>
+  </si>
+  <si>
+    <t>37939</t>
+  </si>
+  <si>
+    <t>SCULPTURES MADE OF PAPER.</t>
+  </si>
+  <si>
+    <t>9783864421945</t>
+  </si>
+  <si>
+    <t>37945</t>
+  </si>
+  <si>
+    <t>MARK BRADFORD: TOMORROW IS ANOTHER DAY.</t>
+  </si>
+  <si>
+    <t>9781941366141</t>
+  </si>
+  <si>
+    <t>37949</t>
+  </si>
+  <si>
+    <t>LIQUID ANTIQUITY.</t>
+  </si>
+  <si>
+    <t>9782839920674</t>
+  </si>
+  <si>
+    <t>37950</t>
+  </si>
+  <si>
+    <t>LEE BONTECOU.</t>
+  </si>
+  <si>
+    <t>9783960980667</t>
+  </si>
+  <si>
     <t>37951</t>
   </si>
   <si>
@@ -91,7 +208,7 @@
     <t>9788857232164</t>
   </si>
   <si>
-    <t>83734</t>
+    <t>83\734</t>
   </si>
   <si>
     <t>GLENN BROWN.</t>
@@ -107,6 +224,24 @@
   </si>
   <si>
     <t>9782914171458</t>
+  </si>
+  <si>
+    <t>83751</t>
+  </si>
+  <si>
+    <t>EN: ART OF NEXUS -- PADIGLIONE GIAPPONE, BIENNALE ARCHITECTTURA 2016.</t>
+  </si>
+  <si>
+    <t>9784887063587</t>
+  </si>
+  <si>
+    <t>83752</t>
+  </si>
+  <si>
+    <t>THE SIXTIES: A WORLDWIDE HAPPENING.</t>
+  </si>
+  <si>
+    <t>9789462261501</t>
   </si>
 </sst>
 </file>
@@ -452,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9783775743211&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9780847847679&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
         <v/>
       </c>
     </row>
@@ -500,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9782869251311&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9789082364712&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
         <v/>
       </c>
     </row>
@@ -515,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9783903153011&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9789096182940&amp;"&amp;search_field=advanced&amp;commit=Search", "No Match")</f>
         <v/>
       </c>
     </row>
@@ -530,7 +665,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1">
-        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9782359061994&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9789186265304&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
         <v/>
       </c>
     </row>
@@ -545,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1">
-        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9781741741315&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9789462621084&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
         <v/>
       </c>
     </row>
@@ -560,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9780520296169&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9781887457224&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
         <v/>
       </c>
     </row>
@@ -575,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9788857232164&amp;"&amp;search_field=advanced&amp;commit=Search", "No Match")</f>
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9783863359867&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
         <v/>
       </c>
     </row>
@@ -590,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="1">
-        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9782358640923&amp;"&amp;search_field=advanced&amp;commit=Search", "No Match")</f>
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9782072730023&amp;"&amp;search_field=advanced&amp;commit=Search", "No Match")</f>
         <v/>
       </c>
     </row>
@@ -605,7 +740,232 @@
         <v>30</v>
       </c>
       <c r="D10" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9781926632162&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9783864421945&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9781941366141&amp;"&amp;search_field=advanced&amp;commit=Search", "No Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9782839920674&amp;"&amp;search_field=advanced&amp;commit=Search", "No Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9783960980667&amp;"&amp;search_field=advanced&amp;commit=Search", "No Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9783775743211&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9782869251311&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9783903153011&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9782359061994&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9781741741315&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9780520296169&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9788857232164&amp;"&amp;search_field=advanced&amp;commit=Search", "No Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9782358640923&amp;"&amp;search_field=advanced&amp;commit=Search", "No Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1">
         <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9782914171458&amp;"&amp;search_field=advanced&amp;commit=Search", "No Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9784887063587&amp;"&amp;search_field=advanced&amp;commit=Search", "Possible Match")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1">
+        <f>HYPERLINK("https://pulsearch.princeton.edu/catalog?utf8=%E2%9C%93&amp;f1=isbn&amp;q1="&amp;9789462261501&amp;"&amp;search_field=advanced&amp;commit=Search", "No Match")</f>
         <v/>
       </c>
     </row>
